--- a/Ar_Script/test_code.xlsx
+++ b/Ar_Script/test_code.xlsx
@@ -1,12 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="1860" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test1_50" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_98" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_77" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_54" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_88" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_43" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_9" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -40,6 +47,10 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="13"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,27 +70,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="39"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -98,25 +116,25 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$7</f>
+              <f>'test1_50'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test1_50'!$A$2:$A$4</f>
             </numRef>
           </val>
         </ser>
@@ -125,25 +143,25 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$B$2:$B$7</f>
+              <f>'test1_50'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test1_50'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -152,18 +170,155 @@
           <order val="2"/>
           <tx>
             <strRef>
+              <f>'test1_50'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test1_50'!$C$2:$C$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
               <f>'Sheet1'!C1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -183,14 +338,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -198,6 +353,498 @@
           <val>
             <numRef>
               <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'test_43'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_43'!$B$1:$A$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'test_43'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_43'!$C$1:$B$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'test_43'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_43'!$D$1:$C$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'test_43'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_43'!$D$1:$C$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'test_9'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_9'!$B$1:$A$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'test_9'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_9'!$C$1:$B$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'test_9'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_9'!$D$1:$C$1</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'test_9'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_9'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -237,13 +884,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -262,25 +909,25 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$7</f>
+              <f>'test_98'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_98'!$A$2:$A$4</f>
             </numRef>
           </val>
         </ser>
@@ -289,25 +936,25 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$B$2:$B$7</f>
+              <f>'test_98'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_98'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -316,25 +963,25 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_98'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_98'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -343,25 +990,25 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_98'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_98'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -401,13 +1048,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -426,25 +1073,25 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$7</f>
+              <f>'test_77'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_77'!$B$1:$A$1</f>
             </numRef>
           </val>
         </ser>
@@ -453,25 +1100,25 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$B$2:$B$7</f>
+              <f>'test_77'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_77'!$C$1:$B$1</f>
             </numRef>
           </val>
         </ser>
@@ -480,25 +1127,25 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_77'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_77'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -507,25 +1154,25 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_77'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_77'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -565,13 +1212,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -590,25 +1237,25 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$7</f>
+              <f>'test_54'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_54'!$B$1:$A$1</f>
             </numRef>
           </val>
         </ser>
@@ -617,25 +1264,25 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$B$2:$B$7</f>
+              <f>'test_54'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_54'!$C$1:$B$1</f>
             </numRef>
           </val>
         </ser>
@@ -644,25 +1291,25 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_54'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_54'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -671,25 +1318,25 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_54'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_54'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -729,13 +1376,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -754,25 +1401,25 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$7</f>
+              <f>'test_88'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_88'!$B$1:$A$1</f>
             </numRef>
           </val>
         </ser>
@@ -781,25 +1428,25 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$B$2:$B$7</f>
+              <f>'test_88'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_88'!$C$1:$B$1</f>
             </numRef>
           </val>
         </ser>
@@ -808,25 +1455,25 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_88'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_88'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -835,25 +1482,25 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$7</f>
+              <f>'test_88'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'test_88'!$D$1:$C$1</f>
             </numRef>
           </val>
         </ser>
@@ -893,14 +1540,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="39"/>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -923,14 +1569,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -950,14 +1596,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -977,14 +1623,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1004,14 +1650,506 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>数据折线图</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!A1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1058,7 +2196,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -1073,9 +2211,144 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1095,9 +2368,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1117,9 +2390,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1139,9 +2412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1161,9 +2434,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1183,9 +2456,63 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1456,7 +2783,222 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>标题1</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>标题2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>标题3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>标题1</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>标题2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>标题3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>23445</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4.45454323</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.45435313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>标题1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>标题2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>标题3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1553,8 +3095,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>